--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1038990.683888691</v>
+        <v>-1041795.100927468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11175430.09079879</v>
+        <v>11175430.0907988</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0364659174639</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>318.9701503927067</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.6579538011885</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>84.27763608286133</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.6660021286642</v>
       </c>
       <c r="H3" t="n">
-        <v>11.00785359799569</v>
+        <v>105.6920753502193</v>
       </c>
       <c r="I3" t="n">
-        <v>66.06990907426885</v>
+        <v>66.06990907426879</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.09247086738426</v>
+        <v>58.09247086738416</v>
       </c>
       <c r="S3" t="n">
         <v>159.0986264928551</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>50.38499064116446</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>130.3185755157975</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>36.42635977533099</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.51865536004</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>292.7746437587703</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>402.7848430061927</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>98.33291139503798</v>
+        <v>77.43213079320253</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>51.8264336133748</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>171.4759165135271</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>334.5585131963892</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>106.5125558626488</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>63.62136529615035</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>141.0110224064177</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672543</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.32106446353023</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.9940444729594</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1983720868891</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>61.97958965902472</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.5854408598109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>50.06209150957563</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>184.61419076404</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>37.40501058443041</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.76895293959905</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652672</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.103402401994</v>
+        <v>902.5560430418584</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.103402401994</v>
+        <v>533.5935261014467</v>
       </c>
       <c r="D2" t="n">
-        <v>1263.103402401994</v>
+        <v>533.5935261014467</v>
       </c>
       <c r="E2" t="n">
-        <v>877.3151498037499</v>
+        <v>533.5935261014467</v>
       </c>
       <c r="F2" t="n">
-        <v>466.3292450141424</v>
+        <v>533.5935261014467</v>
       </c>
       <c r="G2" t="n">
-        <v>48.11059257225965</v>
+        <v>533.5935261014467</v>
       </c>
       <c r="H2" t="n">
-        <v>48.11059257225965</v>
+        <v>211.4014549977026</v>
       </c>
       <c r="I2" t="n">
-        <v>48.11059257225965</v>
+        <v>48.11059257225972</v>
       </c>
       <c r="J2" t="n">
-        <v>142.6792829339072</v>
+        <v>142.6792829339076</v>
       </c>
       <c r="K2" t="n">
-        <v>405.1580396296697</v>
+        <v>405.1580396296702</v>
       </c>
       <c r="L2" t="n">
-        <v>783.062774812325</v>
+        <v>783.0627748123256</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.161152623059</v>
+        <v>1220.16115262306</v>
       </c>
       <c r="N2" t="n">
-        <v>1649.700241613243</v>
+        <v>1649.700241613245</v>
       </c>
       <c r="O2" t="n">
-        <v>2010.114185221486</v>
+        <v>2010.114185221489</v>
       </c>
       <c r="P2" t="n">
-        <v>2280.044764712301</v>
+        <v>2280.044764712304</v>
       </c>
       <c r="Q2" t="n">
-        <v>2405.529628612982</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="R2" t="n">
-        <v>2405.529628612982</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="S2" t="n">
-        <v>2405.529628612982</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="T2" t="n">
-        <v>2405.529628612982</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="U2" t="n">
-        <v>2405.529628612982</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="V2" t="n">
-        <v>2074.466741269412</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="W2" t="n">
-        <v>1721.698085999298</v>
+        <v>2052.760973342872</v>
       </c>
       <c r="X2" t="n">
-        <v>1348.232327738218</v>
+        <v>1679.295215081792</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.103402401994</v>
+        <v>1289.15588310598</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>893.1728372214193</v>
+        <v>842.2789072808533</v>
       </c>
       <c r="C3" t="n">
-        <v>718.7198079402923</v>
+        <v>667.8258779997263</v>
       </c>
       <c r="D3" t="n">
-        <v>569.785398279041</v>
+        <v>518.8914683384751</v>
       </c>
       <c r="E3" t="n">
-        <v>410.5479432735855</v>
+        <v>359.6540133330196</v>
       </c>
       <c r="F3" t="n">
-        <v>264.0133853004705</v>
+        <v>359.6540133330196</v>
       </c>
       <c r="G3" t="n">
-        <v>125.96691850384</v>
+        <v>221.6075465363891</v>
       </c>
       <c r="H3" t="n">
         <v>114.8478744654605</v>
       </c>
       <c r="I3" t="n">
-        <v>48.11059257225965</v>
+        <v>48.11059257225972</v>
       </c>
       <c r="J3" t="n">
-        <v>48.11059257225965</v>
+        <v>48.11059257225972</v>
       </c>
       <c r="K3" t="n">
-        <v>146.5974366769207</v>
+        <v>281.7779347205637</v>
       </c>
       <c r="L3" t="n">
-        <v>522.1964108231996</v>
+        <v>657.376908866843</v>
       </c>
       <c r="M3" t="n">
-        <v>1012.481919433115</v>
+        <v>1147.662417476759</v>
       </c>
       <c r="N3" t="n">
-        <v>1531.45083995333</v>
+        <v>1531.450839953333</v>
       </c>
       <c r="O3" t="n">
-        <v>1939.790335169963</v>
+        <v>1939.790335169966</v>
       </c>
       <c r="P3" t="n">
-        <v>2250.515712249721</v>
+        <v>2250.515712249725</v>
       </c>
       <c r="Q3" t="n">
-        <v>2405.529628612982</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="R3" t="n">
-        <v>2346.850365110574</v>
+        <v>2346.850365110578</v>
       </c>
       <c r="S3" t="n">
-        <v>2186.144681784458</v>
+        <v>2186.144681784462</v>
       </c>
       <c r="T3" t="n">
-        <v>1986.716532636526</v>
+        <v>1986.71653263653</v>
       </c>
       <c r="U3" t="n">
-        <v>1758.537937966385</v>
+        <v>1758.53793796639</v>
       </c>
       <c r="V3" t="n">
-        <v>1523.385829734643</v>
+        <v>1523.385829734647</v>
       </c>
       <c r="W3" t="n">
-        <v>1269.148473006441</v>
+        <v>1269.148473006445</v>
       </c>
       <c r="X3" t="n">
-        <v>1269.148473006441</v>
+        <v>1218.254543065875</v>
       </c>
       <c r="Y3" t="n">
-        <v>1061.388174241487</v>
+        <v>1010.494244300921</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1956.747498571435</v>
+        <v>2140.938704233824</v>
       </c>
       <c r="C4" t="n">
-        <v>1956.747498571435</v>
+        <v>1972.002521305916</v>
       </c>
       <c r="D4" t="n">
-        <v>1956.747498571435</v>
+        <v>1972.002521305916</v>
       </c>
       <c r="E4" t="n">
-        <v>1956.747498571435</v>
+        <v>1972.002521305916</v>
       </c>
       <c r="F4" t="n">
-        <v>1956.747498571435</v>
+        <v>1825.112573808006</v>
       </c>
       <c r="G4" t="n">
-        <v>1825.112573808003</v>
+        <v>1825.112573808006</v>
       </c>
       <c r="H4" t="n">
-        <v>1825.112573808003</v>
+        <v>1825.112573808006</v>
       </c>
       <c r="I4" t="n">
-        <v>1825.112573808003</v>
+        <v>1825.112573808006</v>
       </c>
       <c r="J4" t="n">
-        <v>1825.112573808003</v>
+        <v>1825.112573808006</v>
       </c>
       <c r="K4" t="n">
-        <v>1868.397809279538</v>
+        <v>1868.397809279541</v>
       </c>
       <c r="L4" t="n">
-        <v>1979.314442701082</v>
+        <v>1979.314442701085</v>
       </c>
       <c r="M4" t="n">
-        <v>2106.649604079051</v>
+        <v>2106.649604079054</v>
       </c>
       <c r="N4" t="n">
-        <v>2236.391636349384</v>
+        <v>2236.391636349387</v>
       </c>
       <c r="O4" t="n">
-        <v>2340.213106992981</v>
+        <v>2340.213106992985</v>
       </c>
       <c r="P4" t="n">
-        <v>2405.529628612982</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="Q4" t="n">
-        <v>2405.529628612982</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="R4" t="n">
-        <v>2405.529628612982</v>
+        <v>2405.529628612986</v>
       </c>
       <c r="S4" t="n">
-        <v>2405.529628612982</v>
+        <v>2368.735325809621</v>
       </c>
       <c r="T4" t="n">
-        <v>2405.529628612982</v>
+        <v>2140.938704233824</v>
       </c>
       <c r="U4" t="n">
-        <v>2405.529628612982</v>
+        <v>2140.938704233824</v>
       </c>
       <c r="V4" t="n">
-        <v>2405.529628612982</v>
+        <v>2140.938704233824</v>
       </c>
       <c r="W4" t="n">
-        <v>2405.529628612982</v>
+        <v>2140.938704233824</v>
       </c>
       <c r="X4" t="n">
-        <v>2177.540077714965</v>
+        <v>2140.938704233824</v>
       </c>
       <c r="Y4" t="n">
-        <v>1956.747498571435</v>
+        <v>2140.938704233824</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1192.273879638301</v>
+        <v>1663.707924054181</v>
       </c>
       <c r="C5" t="n">
-        <v>823.3113626978891</v>
+        <v>1294.74540711377</v>
       </c>
       <c r="D5" t="n">
-        <v>465.0456640911386</v>
+        <v>999.0134437210725</v>
       </c>
       <c r="E5" t="n">
-        <v>465.0456640911386</v>
+        <v>999.0134437210725</v>
       </c>
       <c r="F5" t="n">
-        <v>458.1001633419351</v>
+        <v>588.0275389314648</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>707.8574493821779</v>
+        <v>1028.761407827631</v>
       </c>
       <c r="M5" t="n">
-        <v>1242.15201030211</v>
+        <v>1464.933624716668</v>
       </c>
       <c r="N5" t="n">
-        <v>1869.459678361956</v>
+        <v>1659.26783760865</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>2206.429042375727</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2317.163367625254</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.647625145306</v>
+        <v>2347.539466667866</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.647625145306</v>
+        <v>2016.476579324295</v>
       </c>
       <c r="W5" t="n">
-        <v>1955.878969875192</v>
+        <v>1663.707924054181</v>
       </c>
       <c r="X5" t="n">
-        <v>1582.413211614112</v>
+        <v>1663.707924054181</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192.273879638301</v>
+        <v>1663.707924054181</v>
       </c>
     </row>
     <row r="6">
@@ -4638,37 +4638,37 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>97.15164357768661</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1519.21571451897</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.500236059666</v>
+        <v>1717.872456171635</v>
       </c>
       <c r="O6" t="n">
-        <v>2222.936244812389</v>
+        <v>2267.308464924357</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
         <v>2463.013155273854</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.0113218252761</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="C7" t="n">
-        <v>216.0113218252761</v>
+        <v>526.1381271312085</v>
       </c>
       <c r="D7" t="n">
-        <v>216.0113218252761</v>
+        <v>376.0214877188728</v>
       </c>
       <c r="E7" t="n">
-        <v>216.0113218252761</v>
+        <v>228.1083941364797</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>175.7584611936768</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>175.7584611936768</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>175.7584611936768</v>
       </c>
       <c r="I7" t="n">
-        <v>69.12137432736571</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>877.9734715490376</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="T7" t="n">
-        <v>652.3442748614026</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="U7" t="n">
-        <v>652.3442748614026</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="V7" t="n">
-        <v>397.6597866555157</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="W7" t="n">
-        <v>397.6597866555157</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="X7" t="n">
-        <v>397.6597866555157</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="Y7" t="n">
-        <v>397.6597866555157</v>
+        <v>695.0743100591154</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.424186004858</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1528.869075248467</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1170.603376641717</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1170.603376641717</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>759.6174718521092</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4799,16 +4799,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,7 +4820,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2454.750888134854</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2246.005246740678</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1992.424186004858</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>1992.424186004858</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W8" t="n">
-        <v>1992.424186004858</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.424186004858</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.424186004858</v>
+        <v>1897.831592188879</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>812.8918298888576</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="C10" t="n">
-        <v>812.8918298888576</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765219</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1244.744376093917</v>
+        <v>863.4565485832845</v>
       </c>
       <c r="W10" t="n">
-        <v>955.3272060569564</v>
+        <v>574.0393785463239</v>
       </c>
       <c r="X10" t="n">
-        <v>812.8918298888576</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="Y10" t="n">
-        <v>812.8918298888576</v>
+        <v>346.0498276483066</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>328.4394675364385</v>
       </c>
       <c r="H11" t="n">
         <v>92.81162322608056</v>
@@ -5066,25 +5066,25 @@
         <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
-        <v>273.0036752628434</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L12" t="n">
-        <v>763.7360081065948</v>
+        <v>372.2013186925058</v>
       </c>
       <c r="M12" t="n">
-        <v>1355.754362358723</v>
+        <v>964.2196729446335</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
         <v>2552.77562977024</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.2811417106991</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>615.3449587827922</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>465.2283193704565</v>
+        <v>343.9423506097374</v>
       </c>
       <c r="E13" t="n">
-        <v>317.3152257880633</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
         <v>92.81162322608056</v>
@@ -5227,22 +5227,22 @@
         <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2177.346239107599</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1888.270025422326</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1633.585537216439</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1344.168367179478</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.178816281461</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.3862371379308</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329344</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5789,7 +5789,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273905</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532801</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2396.395314378669</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2213.540480033573</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1993.939015056514</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1704.863788400712</v>
       </c>
       <c r="V22" t="n">
-        <v>1721.508338262028</v>
+        <v>1450.179300194825</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.091168225067</v>
+        <v>1160.762130157864</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>932.7725792598471</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3090381835199</v>
+        <v>711.980000116317</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>658.9255961109956</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2342.134540858491</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2122.533075881433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1833.45784922563</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1061.366640084765</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>840.5740609412353</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6306,19 +6306,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961526</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>843.8007528556607</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
         <v>1577.52840832642</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,16 +7023,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319332</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580123</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345485</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384029</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,19 +7330,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382519</v>
@@ -7351,10 +7351,10 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,10 +7445,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,43 +7570,43 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.33868158239</v>
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.82731368787599</v>
+        <v>62.82731368787584</v>
       </c>
       <c r="K3" t="n">
-        <v>127.9192793927375</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>342.7964167237141</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8216,16 +8216,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>351.1062101964892</v>
+        <v>251.9927313774031</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>459.2743913378117</v>
       </c>
       <c r="N6" t="n">
-        <v>294.5961368238072</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>165.2568633803249</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.95569748243736e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>188.454330789442</v>
       </c>
       <c r="H2" t="n">
-        <v>282.5600176472684</v>
+        <v>7.536447723410674</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.32668469393857</v>
       </c>
       <c r="S2" t="n">
-        <v>180.1649055543138</v>
+        <v>180.1649055543137</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5527456453258</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2443511800228</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>301.9603025731923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>50.29152613728999</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.29152613728939</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.83793570897789</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>43.23559055968012</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>56.9992124922839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>16.31315520054606</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>67.52345255978804</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>143.6212754172142</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170368.8479073154</v>
+        <v>170368.8479073156</v>
       </c>
       <c r="C2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="D2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="D2" t="n">
-        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
         <v>200669.9429095077</v>
       </c>
       <c r="F2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.442466071</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
+        <v>205260.442466071</v>
+      </c>
+      <c r="O2" t="n">
         <v>205260.4424660709</v>
       </c>
-      <c r="O2" t="n">
-        <v>205260.4424660708</v>
-      </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660712</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>505060.7749777833</v>
+        <v>505060.7749777843</v>
       </c>
       <c r="C3" t="n">
-        <v>266259.6527065568</v>
+        <v>266259.6527065558</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230265</v>
@@ -26378,7 +26378,7 @@
         <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157348.0985372037</v>
+        <v>157348.098537204</v>
       </c>
       <c r="K3" t="n">
-        <v>10089.44970370629</v>
+        <v>10089.44970370602</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
         <v>129476.5444317442</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704618</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179247.9569434985</v>
+        <v>179247.9569434983</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7500.835840494315</v>
+        <v>7500.835840494316</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719636</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
+        <v>7507.368461719677</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.368461719658</v>
-      </c>
       <c r="J4" t="n">
-        <v>7507.368461719647</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719636</v>
+        <v>7507.368461719677</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481311</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.2277248131</v>
+        <v>15498.22772481317</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77058.32466118861</v>
+        <v>77058.32466118867</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-590998.208675155</v>
+        <v>-591347.1246207432</v>
       </c>
       <c r="C6" t="n">
-        <v>-344824.7816796905</v>
+        <v>-344824.7816796895</v>
       </c>
       <c r="D6" t="n">
         <v>-312476.2030435447</v>
       </c>
       <c r="E6" t="n">
-        <v>-402726.0600810015</v>
+        <v>-402771.965076567</v>
       </c>
       <c r="F6" t="n">
-        <v>81704.4885218336</v>
+        <v>81669.75059639802</v>
       </c>
       <c r="G6" t="n">
-        <v>93156.75163687459</v>
+        <v>93122.01371143913</v>
       </c>
       <c r="H6" t="n">
-        <v>93156.7516368747</v>
+        <v>93122.01371143913</v>
       </c>
       <c r="I6" t="n">
-        <v>93156.75163687475</v>
+        <v>93122.01371143901</v>
       </c>
       <c r="J6" t="n">
-        <v>-64191.34690032903</v>
+        <v>-64226.08482576492</v>
       </c>
       <c r="K6" t="n">
-        <v>83067.30193316854</v>
+        <v>83032.5640077331</v>
       </c>
       <c r="L6" t="n">
-        <v>67170.38089371086</v>
+        <v>67170.38089371059</v>
       </c>
       <c r="M6" t="n">
-        <v>-42878.44554440159</v>
+        <v>-42878.44554440153</v>
       </c>
       <c r="N6" t="n">
-        <v>83521.08153163773</v>
+        <v>83521.08153163776</v>
       </c>
       <c r="O6" t="n">
-        <v>86598.09888734232</v>
+        <v>86598.09888734238</v>
       </c>
       <c r="P6" t="n">
-        <v>86598.09888734229</v>
+        <v>86598.09888734267</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.9850599207007</v>
+        <v>314.9850599207014</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>601.3824071532456</v>
+        <v>601.3824071532465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.9850599207007</v>
+        <v>314.9850599207014</v>
       </c>
       <c r="C3" t="n">
-        <v>278.4910404173644</v>
+        <v>278.4910404173636</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
@@ -26972,7 +26972,7 @@
         <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>601.3824071532456</v>
+        <v>601.3824071532465</v>
       </c>
       <c r="C4" t="n">
-        <v>39.20242494679326</v>
+        <v>39.20242494679223</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259681</v>
+        <v>519.5604582259682</v>
       </c>
       <c r="F4" t="n">
         <v>12.56299777364143</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>601.3824071532454</v>
+        <v>601.3824071532465</v>
       </c>
       <c r="K4" t="n">
-        <v>39.20242494679326</v>
+        <v>39.20242494679223</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259683</v>
+        <v>519.5604582259682</v>
       </c>
       <c r="N4" t="n">
-        <v>12.5629977736412</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>601.3824071532456</v>
+        <v>601.3824071532465</v>
       </c>
       <c r="K4" t="n">
-        <v>39.20242494679326</v>
+        <v>39.20242494679223</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259681</v>
+        <v>519.5604582259682</v>
       </c>
       <c r="N4" t="n">
         <v>12.56299777364143</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>225.5821351280219</v>
       </c>
       <c r="H2" t="n">
-        <v>43.94658046884905</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.6579538011886</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.32668469393876</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5527456453259</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2443511800228</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.68422175222358</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>155.387994562313</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>37.10439799690258</v>
+        <v>167.4229735127001</v>
       </c>
       <c r="H4" t="n">
         <v>157.1770841696946</v>
@@ -27558,7 +27558,7 @@
         <v>138.3689900384439</v>
       </c>
       <c r="J4" t="n">
-        <v>53.20116682153689</v>
+        <v>53.2011668215368</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.59929920366859</v>
+        <v>38.59929920366847</v>
       </c>
       <c r="R4" t="n">
-        <v>151.7537830760583</v>
+        <v>151.7537830760582</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1178052522512</v>
+        <v>177.6914454769202</v>
       </c>
       <c r="T4" t="n">
-        <v>225.51865536004</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2880472194495</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>61.9083978619127</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.13206093974412</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>49.63920985095358</v>
+        <v>70.53999045278903</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>93.59461440955644</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27792,10 +27792,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>33.88996538659157</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>76.9891895765648</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>16.93965953614554</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>188.5162780276777</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>84.69863298261942</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.266271597671158</v>
+        <v>1.26627159767116</v>
       </c>
       <c r="H2" t="n">
-        <v>12.96820399964975</v>
+        <v>12.96820399964978</v>
       </c>
       <c r="I2" t="n">
-        <v>48.81793576921735</v>
+        <v>48.81793576921746</v>
       </c>
       <c r="J2" t="n">
-        <v>107.4732190128425</v>
+        <v>107.4732190128428</v>
       </c>
       <c r="K2" t="n">
-        <v>161.0744957422626</v>
+        <v>161.074495742263</v>
       </c>
       <c r="L2" t="n">
-        <v>199.8271551494914</v>
+        <v>199.8271551494918</v>
       </c>
       <c r="M2" t="n">
-        <v>222.3462126745758</v>
+        <v>222.3462126745763</v>
       </c>
       <c r="N2" t="n">
-        <v>225.944006851459</v>
+        <v>225.9440068514595</v>
       </c>
       <c r="O2" t="n">
-        <v>213.3525186521164</v>
+        <v>213.3525186521169</v>
       </c>
       <c r="P2" t="n">
-        <v>182.0914385846097</v>
+        <v>182.0914385846101</v>
       </c>
       <c r="Q2" t="n">
-        <v>136.7430869930113</v>
+        <v>136.7430869930116</v>
       </c>
       <c r="R2" t="n">
-        <v>79.54243324721092</v>
+        <v>79.54243324721111</v>
       </c>
       <c r="S2" t="n">
-        <v>28.85516403193153</v>
+        <v>28.8551640319316</v>
       </c>
       <c r="T2" t="n">
-        <v>5.543103918805495</v>
+        <v>5.543103918805508</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1013017278136926</v>
+        <v>0.1013017278136928</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6775150345464128</v>
+        <v>0.6775150345464144</v>
       </c>
       <c r="H3" t="n">
-        <v>6.543368886277198</v>
+        <v>6.543368886277213</v>
       </c>
       <c r="I3" t="n">
-        <v>23.32672377714623</v>
+        <v>23.32672377714629</v>
       </c>
       <c r="J3" t="n">
-        <v>64.01031297879071</v>
+        <v>64.01031297879085</v>
       </c>
       <c r="K3" t="n">
-        <v>109.4038202934004</v>
+        <v>109.4038202934006</v>
       </c>
       <c r="L3" t="n">
-        <v>147.1069376544744</v>
+        <v>147.1069376544748</v>
       </c>
       <c r="M3" t="n">
-        <v>171.6668576567818</v>
+        <v>171.6668576567822</v>
       </c>
       <c r="N3" t="n">
-        <v>176.2103685682795</v>
+        <v>176.21036856828</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1980617501722</v>
+        <v>161.1980617501725</v>
       </c>
       <c r="P3" t="n">
-        <v>129.3756560266742</v>
+        <v>129.3756560266745</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.48419984841578</v>
+        <v>86.484199848416</v>
       </c>
       <c r="R3" t="n">
-        <v>42.06536328525888</v>
+        <v>42.06536328525898</v>
       </c>
       <c r="S3" t="n">
-        <v>12.5845446109827</v>
+        <v>12.58454461098273</v>
       </c>
       <c r="T3" t="n">
-        <v>2.730861038369093</v>
+        <v>2.730861038369099</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04457335753594823</v>
+        <v>0.04457335753594834</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5680058457586405</v>
+        <v>0.5680058457586419</v>
       </c>
       <c r="H4" t="n">
-        <v>5.050088337745008</v>
+        <v>5.050088337745019</v>
       </c>
       <c r="I4" t="n">
-        <v>17.08148488881439</v>
+        <v>17.08148488881443</v>
       </c>
       <c r="J4" t="n">
-        <v>40.15801329513588</v>
+        <v>40.15801329513597</v>
       </c>
       <c r="K4" t="n">
-        <v>65.99195189814021</v>
+        <v>65.99195189814037</v>
       </c>
       <c r="L4" t="n">
-        <v>84.44697819578917</v>
+        <v>84.44697819578937</v>
       </c>
       <c r="M4" t="n">
-        <v>89.03749816742034</v>
+        <v>89.03749816742055</v>
       </c>
       <c r="N4" t="n">
-        <v>86.92038546959274</v>
+        <v>86.92038546959296</v>
       </c>
       <c r="O4" t="n">
-        <v>80.28504445323041</v>
+        <v>80.28504445323061</v>
       </c>
       <c r="P4" t="n">
-        <v>68.69772519975409</v>
+        <v>68.69772519975426</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.5627440480258</v>
+        <v>47.56274404802591</v>
       </c>
       <c r="R4" t="n">
-        <v>25.53960830111123</v>
+        <v>25.53960830111129</v>
       </c>
       <c r="S4" t="n">
-        <v>9.898792784721032</v>
+        <v>9.898792784721055</v>
       </c>
       <c r="T4" t="n">
-        <v>2.426934068241463</v>
+        <v>2.426934068241469</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03098213704138043</v>
+        <v>0.0309821370413805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>319.853612748867</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>420.7661933823239</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426205</v>
@@ -31859,7 +31859,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614911</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,19 +32792,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N30" t="n">
-        <v>704.1404939038093</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673334</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107744</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>95.52392965822999</v>
+        <v>95.52392965823024</v>
       </c>
       <c r="K2" t="n">
-        <v>265.1300572684468</v>
+        <v>265.1300572684472</v>
       </c>
       <c r="L2" t="n">
-        <v>381.7219547299546</v>
+        <v>381.721954729955</v>
       </c>
       <c r="M2" t="n">
-        <v>441.5135129401356</v>
+        <v>441.5135129401361</v>
       </c>
       <c r="N2" t="n">
-        <v>433.8778676668522</v>
+        <v>433.8778676668528</v>
       </c>
       <c r="O2" t="n">
-        <v>364.054488493175</v>
+        <v>364.0544884931755</v>
       </c>
       <c r="P2" t="n">
-        <v>272.6571510008228</v>
+        <v>272.6571510008232</v>
       </c>
       <c r="Q2" t="n">
-        <v>126.7523877784665</v>
+        <v>126.7523877784668</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>99.48166071177886</v>
+        <v>236.0276183316202</v>
       </c>
       <c r="L3" t="n">
-        <v>379.3929031780594</v>
+        <v>379.3929031780598</v>
       </c>
       <c r="M3" t="n">
-        <v>495.2378874847634</v>
+        <v>495.2378874847639</v>
       </c>
       <c r="N3" t="n">
-        <v>524.2110308284998</v>
+        <v>387.6650732086608</v>
       </c>
       <c r="O3" t="n">
-        <v>412.4641365824573</v>
+        <v>412.4641365824576</v>
       </c>
       <c r="P3" t="n">
-        <v>313.8640172522811</v>
+        <v>313.8640172522814</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.5797134982434</v>
+        <v>156.5797134982436</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.72246007225736</v>
+        <v>43.72246007225752</v>
       </c>
       <c r="L4" t="n">
-        <v>112.0370034561053</v>
+        <v>112.0370034561055</v>
       </c>
       <c r="M4" t="n">
-        <v>128.6213751292609</v>
+        <v>128.6213751292611</v>
       </c>
       <c r="N4" t="n">
-        <v>131.0525578488213</v>
+        <v>131.0525578488216</v>
       </c>
       <c r="O4" t="n">
-        <v>104.8701723672701</v>
+        <v>104.8701723672703</v>
       </c>
       <c r="P4" t="n">
-        <v>65.97628446464758</v>
+        <v>65.97628446464775</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>539.6914756766989</v>
+        <v>440.5779968576128</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -34954,7 +34954,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
@@ -35021,19 +35021,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>495.2595122305393</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>275.044365933152</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419612</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>182.012173774508</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>282.2118136024497</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
         <v>552.4004797981761</v>
@@ -35507,7 +35507,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394727</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N30" t="n">
-        <v>572.7987818204761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531504</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
